--- a/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1382</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6355064.09</t>
+          <t>6376555.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>598</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4947123.87</t>
+          <t>4952932.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>929508.25</t>
+          <t>935024.25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5577151.94</t>
+          <t>5588551.94</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>486</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4213391.40</t>
+          <t>4333391.40</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1637430.18</t>
+          <t>1700340.18</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>906837.06</t>
+          <t>995420.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>261032.25</t>
+          <t>301032.25</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>5688</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>23850987.63</t>
+          <t>23860987.63</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3107</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>18456223.98</t>
+          <t>18466223.98</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2261017.74</t>
+          <t>2305228.10</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
